--- a/단기프로젝트(S-PPSS)/문서/데이터베이스 정리(7.30).xlsx
+++ b/단기프로젝트(S-PPSS)/문서/데이터베이스 정리(7.30).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>admin_tb</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -255,6 +255,46 @@
   </si>
   <si>
     <t>contract_flag</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>DATETIME DEFAULT CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t>modify_date</t>
+  </si>
+  <si>
+    <t>DATETIME DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_department</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,9 +637,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J34"/>
+  <dimension ref="C4:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1042,7 @@
     </row>
     <row r="5" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
@@ -1017,29 +1054,29 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -1049,7 +1086,7 @@
       <c r="G7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -1059,7 +1096,7 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1071,13 +1108,13 @@
       <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="13"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -1089,13 +1126,13 @@
       <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="13"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1107,13 +1144,13 @@
       <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="13"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -1125,13 +1162,13 @@
       <c r="G11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="13"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1143,12 +1180,12 @@
       <c r="G12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="13"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="19"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1157,7 +1194,7 @@
     </row>
     <row r="14" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="10"/>
@@ -1169,353 +1206,407 @@
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="17">
-        <v>10</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="27"/>
+      <c r="F17" s="16">
+        <v>10</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="26"/>
       <c r="I17" s="13"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>2</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="27"/>
+      <c r="G18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="26"/>
       <c r="I18" s="13"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>6</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="27"/>
+      <c r="G19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="26"/>
       <c r="I19" s="13"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>7</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="27"/>
+      <c r="G20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="26"/>
       <c r="I20" s="13"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>40</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="27"/>
+      <c r="G21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="26"/>
       <c r="I21" s="13"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>20</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="27"/>
+      <c r="G22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="26"/>
       <c r="I22" s="13"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>20</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="27"/>
+      <c r="G23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="26"/>
       <c r="I23" s="13"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="17">
-        <v>10</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="27"/>
+      <c r="F24" s="16">
+        <v>10</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="26"/>
       <c r="I24" s="13"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="27"/>
+      <c r="F25" s="16">
+        <v>4</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="26"/>
       <c r="I25" s="13"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="18"/>
+      <c r="F26" s="16">
+        <v>4</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D27" s="19"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D27" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="16">
+        <v>10</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
-      <c r="D28" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="2"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
-      <c r="D29" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
-      <c r="D30" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C31" s="3"/>
-      <c r="D31" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="4"/>
+      <c r="D31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C32" s="3"/>
-      <c r="D32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="13"/>
+      <c r="D32" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>6</v>
+      </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" s="3"/>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
